--- a/biology/Botanique/Sansevieria_zeylanica/Sansevieria_zeylanica.xlsx
+++ b/biology/Botanique/Sansevieria_zeylanica/Sansevieria_zeylanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria zeylanica, également appelée Dracaena zeylanica[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria zeylanica, également appelée Dracaena zeylanica, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria zeylanica est une espèce de sansevières à feuilles érectiles à sub-érectiles (cinq à quinze par pied), de longueur (17 à 55 cm) et de largeur (1,3 à 3,8 cm) moyennes, linéaires ou lancéolées, lisses, présentant un sillon central marqué à leurs bases et canellées sur leurs faces externes (cinq à sept sillons) et de couleur verte striées de zones plus claires avec des bords blanchâtres[2].
-Décrite initialement en 1753 par Linné sous le nom Aloe hyacinthoides var. zeylanica, elle a été identifiée comme espèce à part entière en 1799 par le pharmacien et botaniste allemand Carl Ludwig Willdenow[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria zeylanica est une espèce de sansevières à feuilles érectiles à sub-érectiles (cinq à quinze par pied), de longueur (17 à 55 cm) et de largeur (1,3 à 3,8 cm) moyennes, linéaires ou lancéolées, lisses, présentant un sillon central marqué à leurs bases et canellées sur leurs faces externes (cinq à sept sillons) et de couleur verte striées de zones plus claires avec des bords blanchâtres.
+Décrite initialement en 1753 par Linné sous le nom Aloe hyacinthoides var. zeylanica, elle a été identifiée comme espèce à part entière en 1799 par le pharmacien et botaniste allemand Carl Ludwig Willdenow.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Taxonomy</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kingdom: Plantae (Plants)
 Clade: Tracheophytes (Vascular plants)
@@ -581,14 +597,16 @@
           <t>Varieties</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sansevieria Zeylanica 'Moonshine': This variety is known for its silvery-gray leaves that have a subtle moonlight-like appearance. It's a striking and attractive variation of the classic Sansevieria Zeylanica.
 Sansevieria Zeylanica 'Futura Superba': This cultivar features wider and shorter leaves than the typical Sansevieria Zeylanica, with distinctive dark green bands running along the length of the leaves. It's a compact and visually appealing variety.
 Sansevieria Zeylanica 'Whale Fin': Named for its broad and paddle-shaped leaves that resemble whale fins, this unique variety stands out due to its distinctive leaf shape. It's a conversation starter among plant enthusiasts.
 Sansevieria Zeylanica 'Zenzi': 'Zenzi' is a dwarf variety of Sansevieria Zeylanica with shorter leaves and a compact growth habit. It's an excellent choice for smaller spaces or as part of a plant arrangement.
 Sansevieria Zeylanica 'Patula': This variety features slightly curved leaves, adding a touch of elegance to the typical Sansevieria Zeylanica appearance. The curvature of the leaves sets it apart from other cultivars.
-Sansevieria Zeylanica 'Golden Hahnii': While not a Zeylanica variety, this cultivar is worth mentioning for its distinctive appearance. It has compact rosettes of variegated leaves with golden-yellow edges, making it an eye-catching addition to your collection[4].</t>
+Sansevieria Zeylanica 'Golden Hahnii': While not a Zeylanica variety, this cultivar is worth mentioning for its distinctive appearance. It has compact rosettes of variegated leaves with golden-yellow edges, making it an eye-catching addition to your collection.</t>
         </is>
       </c>
     </row>
@@ -616,9 +634,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire d'Asie du Sud, présente initialement au Sri Lanka – anciennement Ceylan, qui lui donne son nom –, ainsi que dans le sud de l'Inde puis a été introduite au Bangladesh et à l'île Maurice[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire d'Asie du Sud, présente initialement au Sri Lanka – anciennement Ceylan, qui lui donne son nom –, ainsi que dans le sud de l'Inde puis a été introduite au Bangladesh et à l'île Maurice.
 </t>
         </is>
       </c>
@@ -647,9 +667,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce présente plusieurs synonymes[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'espèce présente plusieurs synonymes :
 Aloe hyacinthoides var. zeylanica (Linné, 1753)
 Aloe zeylanica (Linné 1753 ; ex Jacq., 1762)
 Acyntha zeylanica (Kuntze, 1891)
